--- a/Git Commands.xlsx
+++ b/Git Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shivam\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724FF0A5-9094-488A-9F27-860F8A9709A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78986C3-C16C-4942-9D1E-1527A5BA79D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>git add &lt;path&gt;</t>
-  </si>
-  <si>
-    <t>Stage a specific directory or file</t>
   </si>
   <si>
     <t>Stage all files (that are not listed in the .gitignore) in the entire repository</t>
@@ -525,6 +522,12 @@
   <si>
     <t>git stash pop
 git stash pop index</t>
+  </si>
+  <si>
+    <t>The git add command adds a change in the working directory to the staging area.
+It tells Git that you want to include updates to a particular file in the next commit.
+However, git add doesn't really affect the repository in any significant way—changes are not actually recorded until you run git commit.
+Stage a specific directory or file.</t>
   </si>
 </sst>
 </file>
@@ -778,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,28 +879,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,7 +1190,7 @@
   <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1194,10 +1200,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1333,7 +1339,7 @@
     </row>
     <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
@@ -1449,26 +1455,26 @@
     </row>
     <row r="40" spans="1:2" ht="52" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1502,12 +1508,12 @@
       <c r="A47" s="23"/>
       <c r="B47" s="13"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" ht="52" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="29" t="s">
-        <v>67</v>
+      <c r="B48" s="43" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1515,7 +1521,7 @@
         <v>65</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1524,18 +1530,18 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1544,18 +1550,18 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1563,75 +1569,75 @@
       <c r="B56" s="11"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="37" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A58" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="35" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A58" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="40" t="s">
+      <c r="B59" s="36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="36" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A61" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A62" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A61" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A62" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="40" t="s">
+      <c r="B64" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="40" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="39" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="40" t="s">
+      <c r="B65" s="39" t="s">
         <v>110</v>
-      </c>
-      <c r="B65" s="40" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1699,50 +1705,50 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="41" t="s">
         <v>98</v>
-      </c>
-      <c r="B84" s="42" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Git Commands.xlsx
+++ b/Git Commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shivam\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78986C3-C16C-4942-9D1E-1527A5BA79D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76387FCE-A58B-4F13-823F-68DE37F7D92D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Git Commands</t>
   </si>
@@ -265,10 +265,6 @@
     <t>Rename your local master branch into main with the following command.</t>
   </si>
   <si>
-    <t>git branch -a
-git branch -r</t>
-  </si>
-  <si>
     <t>git config --edit</t>
   </si>
   <si>
@@ -288,9 +284,6 @@
   </si>
   <si>
     <t>Preview changes, before merging.</t>
-  </si>
-  <si>
-    <t>git checkout &lt;filename&gt;</t>
   </si>
   <si>
     <t>git checkout .</t>
@@ -492,16 +485,10 @@
     <t>git stash apply</t>
   </si>
   <si>
-    <t>Re-apply the changes that you just stashed.</t>
-  </si>
-  <si>
     <t>Delete a most recent stash from the queue.</t>
   </si>
   <si>
     <t>Track the stashes and their changes.</t>
-  </si>
-  <si>
-    <t>Re-apply the previous commits.</t>
   </si>
   <si>
     <t>git stash drop</t>
@@ -528,13 +515,288 @@
 It tells Git that you want to include updates to a particular file in the next commit.
 However, git add doesn't really affect the repository in any significant way—changes are not actually recorded until you run git commit.
 Stage a specific directory or file.</t>
+  </si>
+  <si>
+    <t>git reset --hard</t>
+  </si>
+  <si>
+    <t>To discard local changes to all files, permanently.</t>
+  </si>
+  <si>
+    <t>To redo previously stashed changes and remove them from stashed list.</t>
+  </si>
+  <si>
+    <t>To redo previously stashed changes, but keep them on stashed list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git rm [file]</t>
+  </si>
+  <si>
+    <t>This command deletes the file from your working directory and stages the deletion.</t>
+  </si>
+  <si>
+    <t>git tag [commitID]</t>
+  </si>
+  <si>
+    <t>This command is used to give tags to the specified commit.</t>
+  </si>
+  <si>
+    <t>git remote</t>
+  </si>
+  <si>
+    <t>To connect a local repository with a remote repository.
+A remote repository can have a name set to avoid having to remember the URL of the repository.
+git remote &lt;command&gt; &lt;remote_name&gt; &lt;remote_URL&gt;</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>git restore &lt;filename&gt;</t>
+  </si>
+  <si>
+    <t>The name of a file (or multiple files) you want to restore.
+Naming the file you want to restore can be as simple as providing the filename / path to a single file.
+But you can also provide multiple filenames (delimited by spaces) or even a wildcard pattern (e.g. *.html).
+Another option is to provide the . character, thereby restoring all files in the current directory.</t>
+  </si>
+  <si>
+    <t>git restore --source &lt;ref&gt;</t>
+  </si>
+  <si>
+    <t>Restores a specific revision of the file.
+By default, the file will be restored to its last committed state (or simply be unstaged).
+The --source option, however, allows you to restore the file at a specific revision.</t>
+  </si>
+  <si>
+    <t>git restore --source 7173808e index.html
+git restore --source master~2 index.html</t>
+  </si>
+  <si>
+    <t>The first example will restore the file as it was in commit #7173808e, while the second one will restore it as it was "two commits before the current tip of the master branch".</t>
+  </si>
+  <si>
+    <t>git restore --patch</t>
+  </si>
+  <si>
+    <t>Allows you to select individual chunks to restore.
+Git steps through all of the individual chunks of changes in an interactive way and asks you, for each chunk, if you want to discard/unstage it.</t>
+  </si>
+  <si>
+    <t>To stash specific file.</t>
+  </si>
+  <si>
+    <t>git stash -- &lt;filename&gt;</t>
+  </si>
+  <si>
+    <t>git clean</t>
+  </si>
+  <si>
+    <t>git trash</t>
+  </si>
+  <si>
+    <t>Soft alternative to git clean. Moves all unstaged files to the .trash directory for later review.
+First to have this command work you need to add .trash directory to the local or global .gitignore.
+If you don't do that git trash will try to remove the .trash folder as well.</t>
+  </si>
+  <si>
+    <t>This is builtin command to cleanup the untracked files. Be careful with this one, it deletes files permanently!
+Always add -n or --dry-run options to preview the damage you'll do!
+If you just clean untracked files, run git clean -f.
+If you want to also remove directories, run git clean -f -d or git clean -fd.
+If you just want to remove ignored files, run git clean -f -X or git clean -fX.
+If you want to remove ignored as well as non-ignored files, run git clean -f -x or git clean -fx.</t>
+  </si>
+  <si>
+    <t>git branch -r</t>
+  </si>
+  <si>
+    <t>git branch -a</t>
+  </si>
+  <si>
+    <t>List all branches (local and remote).</t>
+  </si>
+  <si>
+    <t>git commit -a</t>
+  </si>
+  <si>
+    <t>git commit -m "commit message"</t>
+  </si>
+  <si>
+    <t>git commit -am "commit message"</t>
+  </si>
+  <si>
+    <t>git commit --amend</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>A shortcut command that immediately creates a commit with a passed commit message.
+By default, git commit will open up the locally configured text editor, and prompt for a commit message to be entered.
+Passing the -m option will forgo the text editor prompt in-favor of an inline message.</t>
+  </si>
+  <si>
+    <t>A power user shortcut command that combines the -a and -m options.
+This combination immediately creates a commit of all the staged changes and takes an inline commit message.</t>
+  </si>
+  <si>
+    <t>This option adds another level of functionality to the commit command.
+Passing this option will modify the last commit.
+Instead of creating a new commit, staged changes will be added to the previous commit.
+This command will open up the system's configured text editor and prompt to change the previously specified commit message.</t>
+  </si>
+  <si>
+    <t>git reset --soft HEAD^</t>
+  </si>
+  <si>
+    <t>git reset --hard HEAD^</t>
+  </si>
+  <si>
+    <t>To destroy the changes from the commit you want to undo.</t>
+  </si>
+  <si>
+    <t>To keep the changes from the commit you want to undo.</t>
+  </si>
+  <si>
+    <t>git rebase [Head]</t>
+  </si>
+  <si>
+    <t>Commit any files you've added with git add, and also commit any files you've changed since then.</t>
+  </si>
+  <si>
+    <t>To add ALL of the files that you have edited.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Takes everything from the staging area and makes a permanent snapshot of the current state of your repository that is associated with a unique identifier.
+Commit the staged snapshot.
+This will launch a text editor prompting you for a commit message.
+After you’ve entered a message, save the file and close the editor to create the actual commit.</t>
+  </si>
+  <si>
+    <t>git add --all
+git add -A</t>
+  </si>
+  <si>
+    <t>git rm -r [file-name.txt]</t>
+  </si>
+  <si>
+    <t>Remove a file (or folder)</t>
+  </si>
+  <si>
+    <t>git checkout -</t>
+  </si>
+  <si>
+    <t>Switch to the branch last checked out.</t>
+  </si>
+  <si>
+    <t>git checkout &lt;filename&gt;
+git checkout -- [file-name.txt]</t>
+  </si>
+  <si>
+    <t>git merge [source branch] [target branch]</t>
+  </si>
+  <si>
+    <t>Merge a branch into a target branch.</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>git log --summary</t>
+  </si>
+  <si>
+    <t>git log --oneline</t>
+  </si>
+  <si>
+    <t>git log --all</t>
+  </si>
+  <si>
+    <t>Git log is a utility tool to review and read a history of everything that happens to a repository.
+Multiple options can be used with a git log to make history more specific.
+Generally, the git log is a record of commits.</t>
+  </si>
+  <si>
+    <t>The oneline option is used to display the output as one commit per line.
+It also shows the output in brief like the first seven characters of the commit SHA and the commit message.</t>
+  </si>
+  <si>
+    <t>git log --stat</t>
+  </si>
+  <si>
+    <t>This command will display the files that have been modified.</t>
+  </si>
+  <si>
+    <t>The git log patch command displays the files that have been modified.
+It also shows the location of the added, removed, and updated lines.</t>
+  </si>
+  <si>
+    <t>git log --patch
+git log -p</t>
+  </si>
+  <si>
+    <t>git log --graph</t>
+  </si>
+  <si>
+    <t>Git log command allows viewing your git log as a graph.
+To list the commits in the form of a graph, run the git log command with --graph option.
+To make the output more specific, you can combine this command with --oneline option.</t>
+  </si>
+  <si>
+    <t>git log -n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To limit the git log's output, including the -&lt;n&gt; option.
+If we want only the last three commit, then we can pass the argument -3 in the git log command. </t>
+  </si>
+  <si>
+    <t>git log --after="yy-mm-dd"</t>
+  </si>
+  <si>
+    <t>You can force the log tool display all commits (regardless of the branch checked out) by using the –all option.</t>
+  </si>
+  <si>
+    <t>This command will display all the commits made after the given date.
+We can also pass the applicable reference statement like "yesterday", "1 week ago", "21 days ago" and more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git log --after="21 days ago" </t>
+  </si>
+  <si>
+    <t>This command will display the commits which have been made 21 days ago.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git log --after="2019-11-01" --before="2019-11-08 " </t>
+  </si>
+  <si>
+    <t>The above command will display the commits made between the dates.
+This output is displaying the commits between the given period. We can use --since and --until instead of --after and --before.
+Because they are synonyms, respectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git log --author="Author name"  </t>
+  </si>
+  <si>
+    <t>This command will display all the commits made by the given author.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git log --grep=" Commit"  </t>
+  </si>
+  <si>
+    <t>To filter the commits by the commit message.
+We can use the grep option, and it will work as the author option.
+We can use the short form of commit message instead of a complete message.
+This output is displaying all the commits that contain the word 'Commit' in its commit message.</t>
+  </si>
+  <si>
+    <t>git diff HEAD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,13 +912,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF292929"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -691,6 +946,55 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -781,7 +1085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -808,9 +1112,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -835,7 +1136,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -871,38 +1172,69 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,10 +1519,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1200,10 +1532,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1222,31 +1554,31 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" spans="1:2" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1254,20 +1586,20 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:2" ht="65" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
     </row>
     <row r="14" spans="1:2" ht="78" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
@@ -1278,8 +1610,8 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -1298,8 +1630,8 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
@@ -1318,438 +1650,752 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
     </row>
     <row r="22" spans="1:2" ht="39" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="39" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A28" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="78" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="39" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:2" ht="52" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="22"/>
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="1:2" ht="52" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-    </row>
-    <row r="26" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A28" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="78" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="39" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="17" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A47" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-    </row>
-    <row r="38" spans="1:2" ht="52" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="23"/>
-      <c r="B39" s="13"/>
-    </row>
-    <row r="40" spans="1:2" ht="52" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A42" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
+      <c r="B48" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="3" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="19"/>
+      <c r="B49" s="22"/>
+    </row>
+    <row r="50" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="23"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="B51" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="22"/>
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="1:2" ht="52" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="23"/>
-      <c r="B47" s="13"/>
-    </row>
-    <row r="48" spans="1:2" ht="52" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+      <c r="B54" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="22"/>
+      <c r="B56" s="31"/>
+    </row>
+    <row r="57" spans="1:2" ht="52" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="29" t="s">
+      <c r="B58" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="23"/>
-      <c r="B50" s="13"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="12" t="s">
+      <c r="B59" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="39" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A61" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="39" x14ac:dyDescent="0.35">
+      <c r="A62" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
+      <c r="B64" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="8" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A58" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A61" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A62" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B63" s="39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="39" t="s">
-        <v>110</v>
-      </c>
-    </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="30"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A69" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A72" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="19"/>
+      <c r="B77" s="29"/>
+    </row>
+    <row r="78" spans="1:2" ht="65" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-    </row>
-    <row r="69" spans="1:2" ht="65" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
+      <c r="B78" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="39" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A81" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="52" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="22"/>
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="44"/>
+      <c r="B87" s="10"/>
+    </row>
+    <row r="88" spans="1:2" ht="39" x14ac:dyDescent="0.35">
+      <c r="A88" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" s="49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A90" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="35" x14ac:dyDescent="0.35">
+      <c r="A94" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" s="52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" s="52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" s="52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" s="50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="35" x14ac:dyDescent="0.35">
+      <c r="A98" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" s="52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" s="50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" s="52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="22"/>
+      <c r="B101" s="22"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="19"/>
+      <c r="B103" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="65" x14ac:dyDescent="0.35">
+      <c r="A104" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B104" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="23"/>
-      <c r="B72" s="23"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="20"/>
-      <c r="B73" s="23"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="19"/>
+      <c r="B108" s="22"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" s="22"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B76" s="23"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+      <c r="B112" s="22"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="23"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" s="23"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="7" t="s">
+      <c r="B113" s="22"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B115" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B116" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B118" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B119" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="26.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84" s="41" t="s">
-        <v>98</v>
-      </c>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B122" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="78" x14ac:dyDescent="0.35">
+      <c r="A123" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
